--- a/Python codes/Sweeps/BadApples.xlsx
+++ b/Python codes/Sweeps/BadApples.xlsx
@@ -359,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,54 +720,114 @@
         <v>35.898592999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.25886700000000001</v>
+      </c>
+      <c r="C33">
+        <v>28.352791</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.31895699999999999</v>
+      </c>
+      <c r="C34">
+        <v>14.392787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.21278900000000001</v>
+      </c>
+      <c r="C35">
+        <v>44.926133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.224665</v>
+      </c>
+      <c r="C36">
+        <v>37.175263000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.28438600000000003</v>
+      </c>
+      <c r="C37">
+        <v>46.382731999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.29311599999999999</v>
+      </c>
+      <c r="C38">
+        <v>36.860467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.254855</v>
+      </c>
+      <c r="C39">
+        <v>15.842623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.23225100000000001</v>
+      </c>
+      <c r="C40">
+        <v>28.760280000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.322129</v>
+      </c>
+      <c r="C41">
+        <v>20.614968999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
+      </c>
+      <c r="B42">
+        <v>0.35653899999999999</v>
+      </c>
+      <c r="C42">
+        <v>32.617919000000001</v>
       </c>
     </row>
   </sheetData>
@@ -777,15 +837,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -865,6 +926,27 @@
         <v>64.741401044606206</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(Hoja1!B33:B42)</f>
+        <v>0.27585540000000003</v>
+      </c>
+      <c r="C5">
+        <f>_xlfn.STDEV.S(Hoja1!B33:B42)</f>
+        <v>4.7267948774807174E-2</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(Hoja1!C33:C42)</f>
+        <v>30.592596400000001</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.STDEV.S(Hoja1!C33:C42)</f>
+        <v>11.202286407688481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
